--- a/日経社説ー春秋/政策の具体像が見えないトランプ演説.xlsx
+++ b/日経社説ー春秋/政策の具体像が見えないトランプ演説.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\translation\日経社説ー春秋\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,159 +19,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>力説</t>
-  </si>
-  <si>
-    <t>道筋</t>
-  </si>
-  <si>
-    <t>中ぶらりん</t>
-  </si>
-  <si>
-    <t>直談判</t>
-  </si>
-  <si>
-    <t>食傷</t>
-  </si>
-  <si>
-    <t>漠然</t>
-  </si>
-  <si>
-    <t>論評</t>
-  </si>
-  <si>
-    <t>ぼんやり</t>
-  </si>
-  <si>
-    <t>折り合い</t>
-  </si>
-  <si>
-    <t>面々</t>
-  </si>
-  <si>
-    <t>送付</t>
-  </si>
-  <si>
-    <t>教書</t>
-  </si>
-  <si>
-    <t>差し止める</t>
-  </si>
-  <si>
-    <t>店晒し</t>
-  </si>
-  <si>
-    <t>りきせつ</t>
-  </si>
-  <si>
-    <t>熱心に説くこと。力を込めて述べ立てること。</t>
-  </si>
-  <si>
-    <t>みちすじ</t>
-  </si>
-  <si>
-    <t>物事の道理。筋道。</t>
-  </si>
-  <si>
-    <t>ちゅうぶらりん</t>
-  </si>
-  <si>
-    <t>いずれともつかず、中途半端なさま。</t>
-  </si>
-  <si>
-    <t>じかだんぱん</t>
-  </si>
-  <si>
-    <t>仲介を立てず直接に談判・交渉をすること。</t>
-  </si>
-  <si>
-    <t>ネタ</t>
-  </si>
-  <si>
-    <t>ねた</t>
-  </si>
-  <si>
-    <t>ネタとは「生活の糧」を意味する「飯の種」などにみられる『種』の倒置語で、古く江戸時代から的屋が商売の糧となる「商品」のことをネタと呼んだ。</t>
-  </si>
-  <si>
-    <t>しょくしょう</t>
-  </si>
-  <si>
-    <t>同じものを食べ続けたり、同じ事が続いて飽きること。</t>
-  </si>
-  <si>
-    <t>ばくぜん</t>
-  </si>
-  <si>
-    <t>ぼんやりとしてはっきりしないさま。広くてとりとめのないさま。</t>
-  </si>
-  <si>
-    <t>ろんぴょう</t>
-  </si>
-  <si>
-    <t>批評を論じ述べること。また、批評した文章。</t>
-  </si>
-  <si>
-    <t>はっきりしないさま。</t>
-  </si>
-  <si>
-    <t>おりあい</t>
-  </si>
-  <si>
-    <t>人と人との関係。</t>
-  </si>
-  <si>
-    <t>取り巻く</t>
-  </si>
-  <si>
-    <t>とりまく</t>
-  </si>
-  <si>
-    <t>人につきまとって機嫌をとる。</t>
-  </si>
-  <si>
-    <t>めんめん</t>
-  </si>
-  <si>
-    <t>各々の人。めいめい。各自。</t>
-  </si>
-  <si>
-    <t>そうふ</t>
-  </si>
-  <si>
-    <t>品物・書類などを送り届けること。</t>
-  </si>
-  <si>
-    <t>きょうしょ</t>
-  </si>
-  <si>
-    <t>アメリカの大統領または州知事が、それぞれ連邦議会、州議会に対して発する政策上・立法上の意見書。</t>
-  </si>
-  <si>
-    <t>さしとめる</t>
-  </si>
-  <si>
-    <t>ある動作をやめさせる、禁止する。</t>
-  </si>
-  <si>
-    <t>たなざらし</t>
-  </si>
-  <si>
-    <t>解決を要する問題が、全然手を付けられずに放置されていること。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>また同じ演説を聞いた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんな印象を拭えない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランプ大統領は初の議会演説で、大規模なインフラ投資、法人税減税、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オバマケア（医療保険制度改革）撤廃などに取り組むと力説したが、どう進めるのかの道筋は相変わらずはっきりとしなかった。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いつまで中ぶらりん状態を続けるのだろうか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演説は、トランプ氏自らフォードなどの大企業と直談判し、メキシコへの工場移転を防いだという自慢話から始まった。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初の記者会見、大統領就任の演説でも言及した定番ネタである。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米国民の雇用を守る姿勢を明確にしたいのだろうが、食傷気味である。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就任４０日で、具体的に数字が入ったのは、（１）インフラ投資の規模が一兆ドル（約１１３兆円）（２）国防費の増額は５４０億ドル（約６兆１０００円）－－ぐらいだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人税率の引き下げをめぐり、先週のインタビューで「１５～２０％の間にする」と表明していた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演説では「経済チームが歴史的な税制改革をまとめている」と述べるにとどまった。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間層への所得税減税の規模は「巨額」という何とも漠然として説明だった。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米国の今の税制に課題が多いのは事実だが、改革の方向性が具体的に見えてこないと、論評のしようがない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米メディアは「ぼんやりした演説」と報道した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランプ政権は未だ陣容が固まっていない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>議会が未承認の閣僚がいるし、副長官以下のポストの大半は指名にも至っていない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与党の共和党の主流は折り合いが必ずしもようないため人材探しに苦労しているようだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランプ氏の取り巻きは、選挙向きのスローガンを考えるのは得意でも、政策通とは言い難い面々だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「メキシコとの国境に壁を作る」「不法移民を追い出せば治安は良くなる」と訴えれば支持者受けする、と助言しているのだろうが、その先が続かない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例年２月中に議会に送付する予算教書はまだできていない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>イスラム圏七カ国からの入国禁止措置は連邦行高裁に差し止められた後、店晒しのままだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全保障では同盟国に財政負担を求めると強調した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>対象は「北大西洋条約機構（NATO)、中東、太平洋のパートナー」だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個々に日本は含まれるのか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安倍晋三首相は在日米軍の駐留経費負担について「終わった問題」と述べたが、トランプ氏は本当に理解したのか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再び不安になる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -200,11 +165,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -262,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,201 +442,158 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="53.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" customWidth="1"/>
+    <col min="1" max="1" width="53.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="27">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="40.5">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="27">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="27">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="27">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="40.5">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="27">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="27">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="27">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="16" spans="1:1" ht="27">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="17" spans="1:1" ht="27">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="18" spans="1:1" ht="27">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="19" spans="1:1" ht="40.5">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="21" spans="1:1" ht="27">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="23" spans="1:1" ht="27">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="25" spans="1:1" ht="27">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>